--- a/public/datafiles/ward_data.xlsx
+++ b/public/datafiles/ward_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9276E2-1079-4DD9-BF97-8D8F22B6FDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41654CE-29E6-48B0-A5DC-665980B0997A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,12 +379,16 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -419,7 +423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
